--- a/rezultati/rand/DNA construction time - count time.xlsx
+++ b/rezultati/rand/DNA construction time - count time.xlsx
@@ -19,7 +19,7 @@
     <t>veličina MB</t>
   </si>
   <si>
-    <t>broj pokusa</t>
+    <t>veličina</t>
   </si>
 </sst>
 </file>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -372,89 +372,239 @@
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D1">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="E1">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="F1">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="G1">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="H1">
-        <v>6</v>
-      </c>
-      <c r="I1">
-        <v>7</v>
-      </c>
-      <c r="J1">
-        <v>8</v>
-      </c>
-      <c r="K1">
-        <v>9</v>
-      </c>
-      <c r="L1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>500</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
